--- a/biology/Zoologie/Insecte_entomophage/Insecte_entomophage.xlsx
+++ b/biology/Zoologie/Insecte_entomophage/Insecte_entomophage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les insectes entomophages sont des insectes prédateurs, parasites ou parasitoïdes insectivores qui se développent aux dépens d'autres insectes.
 On compte plusieurs milliers d'espèces d'insectes entomophages appartenant à 24 familles réparties dans 15 ordres différents. Tous les stades de développement d'un insecte, œuf, larve, nymphe, adulte sont attaqués par un ou plusieurs entomophages. Ces derniers peuvent à leur tour être victime d'autres consommateurs (hyperparasites).
@@ -512,7 +524,9 @@
           <t>Quelques définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prédateurs se développent en attaquant d'autres arthropodes pour les tuer et se nourrir de leurs cadavres.
 Les parasitoïdes sont des parasites dont la vie larvaire se déroule aux dépens d'un (ou de plusieurs) hôte(s), celui-ci(ceux-ci) succombant à plus ou moins long terme. Les parasitoïdes sont donc en fait des prédateurs d'un type particulier.
@@ -555,11 +569,48 @@
           <t>Caractéristiques biotaxonomiques des entomophages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après leur mode d'alimentation, les insectes entomophages sont subdivisés en deux catégories, les prédateurs et les parasitoïdes.
-Parasitoïdes
-Les parasitoïdes effectuent la totalité de leur développement aux dépens d'un seul individu hôte conduisant à la production d'adultes de taille inférieure à celle de l'insecte consommé (quelques millimètres ou fraction de millimètre)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après leur mode d'alimentation, les insectes entomophages sont subdivisés en deux catégories, les prédateurs et les parasitoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Insecte_entomophage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insecte_entomophage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques biotaxonomiques des entomophages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parasitoïdes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les parasitoïdes effectuent la totalité de leur développement aux dépens d'un seul individu hôte conduisant à la production d'adultes de taille inférieure à celle de l'insecte consommé (quelques millimètres ou fraction de millimètre)
 Généralement ailé, l'adulte est souvent le seul stade de dissémination de l'espèce. La femelle dépose ses œufs soit à proximité immédiate, soit à la surface, soit dans le corps de la victime qu'elle peut déceler ou atteindre tant à l'intérieur du sol que des tissus végétaux (fruit, tige, branche, tronc).
 L'alimentation de l'adulte est le plus souvent constituée de substances sucrées (miellat, nectar, sève, exsudats divers) mais il est parfois nécessaire que la femelle se nourrisse aux dépens de l'hémolymphe de l'hôte afin de mûrir ses œufs.
 La larve vit à la surface (ectoparasitoïde) ou dans le milieu intérieur de l'insecte hôte (endoparasitoïde). L'entomophage épargne tout d'abord les organes essentiels de sa victime (se nourrit d'hémolymphe ou d'éléments figurés du sang) ce qui permet à cette dernière (cas d'endoparasitisme surtout) de continuer à se déplacer, se nourrir ou croître plus ou moins normalement. La mort ne survient qu'au terme du développement larvaire du parasitoïde, période durant laquelle ce dernier attaque à l'aide de ses mandibules et de ses sucs enzymatiques les organes internes qu'il consomme intégralement, à l'exception des structures sclérifiées.
@@ -578,14 +629,83 @@
 difficulté de leur transport sur les lieux d'intervention ainsi que de leur stockage ;
 longueur relative de leur délai d'action ;
 incertitude quant au niveau de contrôle atteint, lié à leur environnement ;
-spécificité élevée qui limite la gamme de ravageurs visés et possibilité d'auto-propagation quand leur hôte est faiblement présent.
-Prédateurs
-À l'inverse des parasitoïdes, les prédateurs ont besoin de plusieurs proies pour effectuer la totalité de leur développement. Les larves et adultes sont mobiles mais ils sont de formes et d'aspects parfois fort différents. Certains chassent à l'affût, établissant des édifices plus ou moins complexes (toiles, entonnoirs), d'autres poursuivent leur victime sur ou dans le sol, sur les plantes ou en vol. Ces proies qui sont généralement de taille inférieure à celle du prédateur, sont, dans la majorité des cas, immédiatement détruites et consommées.
+spécificité élevée qui limite la gamme de ravageurs visés et possibilité d'auto-propagation quand leur hôte est faiblement présent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Insecte_entomophage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insecte_entomophage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques biotaxonomiques des entomophages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'inverse des parasitoïdes, les prédateurs ont besoin de plusieurs proies pour effectuer la totalité de leur développement. Les larves et adultes sont mobiles mais ils sont de formes et d'aspects parfois fort différents. Certains chassent à l'affût, établissant des édifices plus ou moins complexes (toiles, entonnoirs), d'autres poursuivent leur victime sur ou dans le sol, sur les plantes ou en vol. Ces proies qui sont généralement de taille inférieure à celle du prédateur, sont, dans la majorité des cas, immédiatement détruites et consommées.
 Ces caractéristiques générales se retrouvent notamment chez les espèces appartenant à l'ordre des Coléoptères (Carabes, Coccinelles), à celui des Hétéroptères (Reduviidae, Anthocoridae, Miridae, Pentatomidae) ou à celui des Neuroptères (Hémérobes, Chrysopes, Fourmilions) et à celui des Acariens (Phytoseides).
 Selon les familles, on note toutefois une tendance à exploiter des substances d'origine végétale soit à l'état larvaire (Diptères Asilidae, Empididae), soit plus généralement à l'état imaginal.
 Ainsi, chez les Diptères, Syrphides, Cécidomyies entomophages, les Cantharides et les Téléphores, les adultes sont essentiellement floricoles. À ce stade, certaines espèces renforcent leur caractère utile grâce à de bonnes aptitudes pollinisatrices (Syrphes). D'autres sont par contre considérées comme plus ou moins nuisibles par leurs déprédations aux dépens des organes floraux (Cantharides et Téléphores sur les arbres fruitiers en Europe et surtout sur le mil. en Afrique de l'Ouest).
-Biotaxonomie des Hyménoptères entomophages
-Gasteruptioidea
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Insecte_entomophage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Insecte_entomophage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques biotaxonomiques des entomophages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotaxonomie des Hyménoptères entomophages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gasteruptioidea
 Gasteruptiidae	parasitoïde de Sphecidae, Apidae
 Aulacidae		parasitoïde de larves xylophages (Sericinae, Coléoptères)
 Ceraphronoidea
@@ -593,7 +713,7 @@
 Ceraphronidae	Ectoparasitoïde de pucerons, cochenilles, cécydomies, hyménoptères.
 Diaprioidea
 Diapriidae		parasitoïde de pupes de Diptères
-Chalcidoidea[1]
+Chalcidoidea
 Leucospidae		parasitoïde d'Apoïdes solitaires
 Chalcididae		parasitoïde de Lépidoptères, etc.
 Torymidae		Phytophage en majorité, parasitoïde d'oothèque de mantes
@@ -654,33 +774,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Insecte_entomophage</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Insecte_entomophage</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Lutte biologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression « lutte biologique » s'applique à une technique de lutte contre les parasites, essentiellement de végétaux, en élevant des parasitoïdes en laboratoire et en les relâchant dans les cultures à protéger[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression « lutte biologique » s'applique à une technique de lutte contre les parasites, essentiellement de végétaux, en élevant des parasitoïdes en laboratoire et en les relâchant dans les cultures à protéger.
 La technique utilise l'élevage et le lâcher de :
 parasitoïdes indigènes,
 parasitoïdes importés et introduits.
